--- a/src/test/resources/TestData/BraunHC/StreetAddresswithZipcode.xlsx
+++ b/src/test/resources/TestData/BraunHC/StreetAddresswithZipcode.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\HoT-digital\HoT-digital\src\test\resources\TestData\BraunHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stage1\HoT-digital\src\test\resources\TestData\BraunHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9454FC-D279-416F-A882-2DCCC081B449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7792BF-D9C2-4D00-BD71-564CDAC92AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96B37269-ADA2-42E1-89BB-F1CD06570F4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7C7A988-AC5B-460B-AB4C-21923F858BDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,73 +34,484 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="157">
+  <si>
+    <t>S.no</t>
+  </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>S.no</t>
+    <t xml:space="preserve">StreetAddress </t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
   <si>
     <t xml:space="preserve">Zipcode </t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9665 Holly St. </t>
-  </si>
-  <si>
-    <t>Drumright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7159 Fawn Ave. </t>
-  </si>
-  <si>
-    <t>Longdale</t>
-  </si>
-  <si>
-    <t>274 Plymouth Ave.</t>
-  </si>
-  <si>
-    <t>Muskogee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309 Timber Ave. </t>
-  </si>
-  <si>
-    <t>Wakefield</t>
+    <t>TaxRate</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO BOX 121 (From 121 To 159 ) </t>
+  </si>
+  <si>
+    <t>SUMMERFIELD</t>
+  </si>
+  <si>
+    <t>66541</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>1295 Texas Rd</t>
+  </si>
+  <si>
+    <t>Rantoul</t>
+  </si>
+  <si>
+    <t>66079</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>12507 700th Rd</t>
+  </si>
+  <si>
+    <t>Fredonia</t>
+  </si>
+  <si>
+    <t>66736</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>301 N 1st St</t>
+  </si>
+  <si>
+    <t>Independence</t>
+  </si>
+  <si>
+    <t>67301</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>300 Park St</t>
+  </si>
+  <si>
+    <t>Linwood</t>
+  </si>
+  <si>
+    <t>66052</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>511 Elm St</t>
+  </si>
+  <si>
+    <t>Valley Falls</t>
+  </si>
+  <si>
+    <t>66088</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>309 Mercury St</t>
+  </si>
+  <si>
+    <t>Silver Lake</t>
+  </si>
+  <si>
+    <t>66539</t>
+  </si>
+  <si>
+    <t>7.65</t>
+  </si>
+  <si>
+    <t>200 N Walnut St</t>
+  </si>
+  <si>
+    <t>Medicine Lodge</t>
+  </si>
+  <si>
+    <t>67104</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>300 E 3rd Ave</t>
+  </si>
+  <si>
+    <t>Hutchinson</t>
+  </si>
+  <si>
+    <t>67504</t>
+  </si>
+  <si>
+    <t>8.60</t>
+  </si>
+  <si>
+    <t>830 E 800th Rd</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>66047</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>360 Carroll StSaint Paul</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>66771</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO BOX 8001 (From 8001 To 8098 ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRAIRIE</t>
+  </si>
+  <si>
+    <t>66208</t>
+  </si>
+  <si>
+    <t>8.975</t>
+  </si>
+  <si>
+    <t>2714 N 18th St</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>66104</t>
+  </si>
+  <si>
+    <t>9.125</t>
+  </si>
+  <si>
+    <t>1230 W 58th St</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>64113</t>
+  </si>
+  <si>
+    <t>9.225</t>
+  </si>
+  <si>
+    <t>528 N Butler St</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>66733</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 (From 200 To 299 ) ELM ST </t>
+  </si>
+  <si>
+    <t>PIERCEVILLE</t>
+  </si>
+  <si>
+    <t>67868</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>4714 Delaware Rd</t>
+  </si>
+  <si>
+    <t>Pomona</t>
+  </si>
+  <si>
+    <t>66076</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>PO BOX 1 (From 1 To 86 )</t>
+  </si>
+  <si>
+    <t>MISSION</t>
+  </si>
+  <si>
+    <t>66201</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>716 Kiowa St</t>
+  </si>
+  <si>
+    <t>Leavenworth</t>
+  </si>
+  <si>
+    <t>66048</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>Po Box 2633</t>
+  </si>
+  <si>
+    <t>Salina</t>
+  </si>
+  <si>
+    <t>67402</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>420 4th St</t>
+  </si>
+  <si>
+    <t>Bucyrus</t>
+  </si>
+  <si>
+    <t>66013</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO BOX 14001 (From 14001 To 14114 ) </t>
+  </si>
+  <si>
+    <t>LENEXA</t>
+  </si>
+  <si>
+    <t>66285</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>5900 (From 5900 To 5999 ) LONGVIEW ST</t>
+  </si>
+  <si>
+    <t>SHAWNEE</t>
+  </si>
+  <si>
+    <t>66218</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO BOX 121 (From 121 To 176 ) </t>
+  </si>
+  <si>
+    <t>OLATHE</t>
+  </si>
+  <si>
+    <t>66051</t>
+  </si>
+  <si>
+    <t>9.475</t>
+  </si>
+  <si>
+    <t>333 NW Saint John St</t>
+  </si>
+  <si>
+    <t>Topeka</t>
+  </si>
+  <si>
+    <t>66608</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 (From 2000 To 2099 ) 110TH ST </t>
+  </si>
+  <si>
+    <t>MAPLETON</t>
+  </si>
+  <si>
+    <t>66754</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (From 100 To 199 ) LINN ST </t>
+  </si>
+  <si>
+    <t>REDFIELD</t>
+  </si>
+  <si>
+    <t>66769</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26400 (From 26400 To 26499 ) ROAD W11 , </t>
+  </si>
+  <si>
+    <t>CLAYTON</t>
+  </si>
+  <si>
+    <t>67629</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3181 Chautauqua Rd	 </t>
+  </si>
+  <si>
+    <t>Holton</t>
+  </si>
+  <si>
+    <t>66436</t>
+  </si>
+  <si>
+    <t>8.65</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>36 E Highland Dr</t>
   </si>
   <si>
     <t>Bristol</t>
   </si>
   <si>
-    <t xml:space="preserve">9084 Whitemarsh Ave. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">559 Poor House St. </t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>OK(Oklahoma)</t>
-  </si>
-  <si>
-    <t>RI(Rhode Island)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreetAddress </t>
-  </si>
-  <si>
-    <t>TaxRate</t>
+    <t>60512</t>
+  </si>
+  <si>
+    <t>612 Tulane Dr</t>
+  </si>
+  <si>
+    <t>East Saint Louis</t>
+  </si>
+  <si>
+    <t>62207</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>7118 Meadowbrook Ln</t>
+  </si>
+  <si>
+    <t>Hanover Park</t>
+  </si>
+  <si>
+    <t>60133</t>
+  </si>
+  <si>
+    <t>2070 Fox Pointe Dr</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>60504</t>
+  </si>
+  <si>
+    <t>7.750</t>
+  </si>
+  <si>
+    <t>1625 Arlington Dr</t>
+  </si>
+  <si>
+    <t>Wheeling</t>
+  </si>
+  <si>
+    <t>60090</t>
+  </si>
+  <si>
+    <t>474 Vaughn Rd</t>
+  </si>
+  <si>
+    <t>60598</t>
+  </si>
+  <si>
+    <t>8.250</t>
+  </si>
+  <si>
+    <t>PO BOX 1501</t>
+  </si>
+  <si>
+    <t>ELK GROVE VILLAGE</t>
+  </si>
+  <si>
+    <t>60009</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>633 CLARK ST</t>
+  </si>
+  <si>
+    <t>EVANSTON</t>
+  </si>
+  <si>
+    <t>60208</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>PO BOX 1000</t>
+  </si>
+  <si>
+    <t>MELROSE PARK</t>
+  </si>
+  <si>
+    <t>60161</t>
+  </si>
+  <si>
+    <t>10.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,19 +527,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -139,24 +537,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,106 +584,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -295,61 +594,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,169 +937,760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B28F6B-9EB7-40FF-97DD-83A246057480}">
-  <dimension ref="A1:F89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E6187-C41E-40FF-B85D-7EED365334BF}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>11</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>15</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>74030</v>
-      </c>
-      <c r="F2" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>73755</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8.375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>74403</v>
-      </c>
-      <c r="F4" s="5">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2879</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2888</v>
-      </c>
-      <c r="F6" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2809</v>
-      </c>
-      <c r="F7" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="B39" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="26">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/BraunHC/StreetAddresswithZipcode.xlsx
+++ b/src/test/resources/TestData/BraunHC/StreetAddresswithZipcode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stage1\HoT-digital\src\test\resources\TestData\BraunHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\HoT-digital\src\test\resources\TestData\BraunHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7792BF-D9C2-4D00-BD71-564CDAC92AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C9480-D354-4097-9A15-166740521DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7C7A988-AC5B-460B-AB4C-21923F858BDC}"/>
   </bookViews>
@@ -618,10 +618,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,11 +940,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E6187-C41E-40FF-B85D-7EED365334BF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -967,10 +970,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -987,8 +990,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1006,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1039,10 +1042,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1059,8 +1062,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1075,8 +1078,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1091,10 +1094,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1111,8 +1114,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1127,8 +1130,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1143,10 +1146,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1163,8 +1166,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
@@ -1179,8 +1182,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>56</v>
       </c>
@@ -1195,10 +1198,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>6</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1215,8 +1218,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
@@ -1231,8 +1234,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>68</v>
       </c>
@@ -1247,10 +1250,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>7</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1267,8 +1270,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
@@ -1283,8 +1286,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="6" t="s">
         <v>80</v>
       </c>
@@ -1299,10 +1302,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>8</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1319,8 +1322,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5" t="s">
         <v>88</v>
       </c>
@@ -1335,8 +1338,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
         <v>92</v>
       </c>
@@ -1351,10 +1354,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>9</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1371,8 +1374,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="6" t="s">
         <v>100</v>
       </c>
@@ -1387,8 +1390,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="6" t="s">
         <v>104</v>
       </c>
@@ -1403,10 +1406,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1423,8 +1426,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
         <v>112</v>
       </c>
@@ -1439,8 +1442,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
         <v>116</v>
       </c>
@@ -1455,10 +1458,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>11</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1475,8 +1478,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
         <v>112</v>
       </c>
@@ -1491,8 +1494,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="6" t="s">
         <v>116</v>
       </c>
@@ -1507,10 +1510,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <v>15</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1527,8 +1530,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="5" t="s">
         <v>128</v>
       </c>
@@ -1543,8 +1546,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="5" t="s">
         <v>132</v>
       </c>
@@ -1559,10 +1562,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>16</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1579,8 +1582,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="6" t="s">
         <v>139</v>
       </c>
@@ -1595,8 +1598,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="6" t="s">
         <v>142</v>
       </c>
@@ -1611,10 +1614,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>17</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1631,8 +1634,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="5" t="s">
         <v>149</v>
       </c>
@@ -1647,8 +1650,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="5" t="s">
         <v>153</v>
       </c>
@@ -1664,6 +1667,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="A39:A41"/>
@@ -1672,24 +1693,6 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
